--- a/public/templates/template_pengguna.xlsx
+++ b/public/templates/template_pengguna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sistem-absensi-guru\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60584E15-7A3D-4E08-A69D-8742C2D7CEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1159AEC-53F3-4EF1-88E9-D47FB60AAB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F63B7A3-FF2C-427E-AFA1-EE64629B3D4A}"/>
   </bookViews>
@@ -78,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,25 +398,29 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="4" max="5" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -424,5 +429,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>